--- a/biology/Zoologie/Formation_de_Barun_Goyot/Formation_de_Barun_Goyot.xlsx
+++ b/biology/Zoologie/Formation_de_Barun_Goyot/Formation_de_Barun_Goyot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La formation de Barun Goyot (= formation Goyot de l'ouest) est une formation géologique du bassin de Nemegt. Ce bassin est situé dans la partie nord-ouest du désert de Gobi, dans le sud de la Mongolie (province d'Ömnögovi).
 Elle date du Crétacé supérieur.
 Elle se place entre la formation de Nemegt qui la recouvre et la formation de Djadokhta. La formation de Barun Goyot correspond à l'ancienne partie inférieure de la formation de Nemegt qui s'appelait alors « bancs inférieurs du Nemegt » (« Lower Nemegt Beds »).
-Les « bancs rouges de Khermeen Tsav » (« Red Beds of Khermeen Tsav ») font aussi partie de cette formation. La formation de Barun Goyot a une épaisseur d'environ 110 mètres[1]. Ces sédiments d’environnement continental sont célèbres pour les nombreux fossiles qu'ils renferment, en particulier de dinosaures et de mammifères.
+Les « bancs rouges de Khermeen Tsav » (« Red Beds of Khermeen Tsav ») font aussi partie de cette formation. La formation de Barun Goyot a une épaisseur d'environ 110 mètres. Ces sédiments d’environnement continental sont célèbres pour les nombreux fossiles qu'ils renferment, en particulier de dinosaures et de mammifères.
 </t>
         </is>
       </c>
@@ -515,44 +527,12 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est datée de la fin du Crétacé supérieur, du Maastrichtien basal, soit il y a environ entre 72 et 71 Ma (millions d'années).
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Formation_de_Barun_Goyot</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Formation_de_Barun_Goyot</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Faune fossile de vertébrés</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Saurischiens
-Lézards
-Mammalia|Mammifères
-Ornithischia|Ornithischiens
-Œufs</t>
         </is>
       </c>
     </row>
